--- a/viagem/doc/Consultas2.xlsx
+++ b/viagem/doc/Consultas2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdometerco\Desktop\Rogerio - C\programacao\viagem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -165,9 +160,6 @@
     <t>Movimentação de produto</t>
   </si>
   <si>
-    <t>Descargas</t>
-  </si>
-  <si>
     <t>Veículos</t>
   </si>
   <si>
@@ -226,13 +218,16 @@
   </si>
   <si>
     <t>Data acordada</t>
+  </si>
+  <si>
+    <t>Descargas realizadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,10 +395,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +429,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -611,14 +604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:J27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -626,7 +619,7 @@
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10">
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
@@ -637,7 +630,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -657,7 +650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -681,7 +674,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -705,7 +698,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -729,7 +722,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -753,7 +746,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10">
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
@@ -764,7 +757,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10">
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -784,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -808,7 +801,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -832,7 +825,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -856,7 +849,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -880,7 +873,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10">
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
@@ -891,7 +884,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10">
       <c r="D16" t="s">
         <v>0</v>
       </c>
@@ -911,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9">
       <c r="C17">
         <v>545</v>
       </c>
@@ -934,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9">
       <c r="C18">
         <v>30430</v>
       </c>
@@ -957,7 +950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9">
       <c r="C19">
         <v>90201</v>
       </c>
@@ -980,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9">
       <c r="C20">
         <v>6712</v>
       </c>
@@ -1003,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9">
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1014,7 +1007,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9">
       <c r="D23" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -1052,7 +1045,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1066,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9">
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -1094,7 +1087,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -1121,14 +1114,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1140,17 +1133,17 @@
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1188,7 +1181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="1">
         <v>480</v>
       </c>
@@ -1199,12 +1192,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1215,7 +1208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="1">
         <v>480</v>
       </c>
@@ -1226,23 +1219,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1253,7 +1246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="B16" s="1">
         <v>350</v>
       </c>
@@ -1270,21 +1263,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1292,10 +1285,10 @@
         <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1303,10 +1296,10 @@
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1317,7 +1310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1325,10 +1318,10 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="D6">
         <v>12</v>
       </c>
@@ -1336,15 +1329,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="D8">
         <v>33</v>
       </c>
@@ -1352,15 +1345,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9" t="s">
         <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="D10">
         <v>50</v>
       </c>
@@ -1374,14 +1367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1389,155 +1382,155 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="5">
         <v>42835</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="H5" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9">
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="5">
         <v>42835</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5">
         <v>42835</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5">
         <v>42835</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5">
         <v>42836</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="5">
         <v>42836</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5">
         <v>42837</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="5">
         <v>42837</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5">
         <v>42838</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="5">
         <v>42838</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="I15" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="I16" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I16" s="7" t="s">
+    <row r="17" spans="9:9">
+      <c r="I17" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="7" t="s">
+    <row r="18" spans="9:9">
+      <c r="I18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="7" t="s">
+    <row r="19" spans="9:9">
+      <c r="I19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="7" t="s">
+    <row r="20" spans="9:9">
+      <c r="I20" s="7" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
